--- a/biology/Botanique/Tulipa_pulchella/Tulipa_pulchella.xlsx
+++ b/biology/Botanique/Tulipa_pulchella/Tulipa_pulchella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulipa pulchella est une espèce de plantes de la famille des liliacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite tulipe originaire d'Iran et de Turquie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède un bulbe de 1 à 2 cm de diamètre. Sa tige en fleur atteint 20 cm en hauteur. Les feuilles, de couleur vert-glauque mesurent 10 à 15 cm en longueur. Les fleurs sont de couleur rougeâtre-pourpre, avec six tépales de 3 cm de large et 1,5 cm de large.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été introduite en Europe au début du XIXe siècle, où un petit nombre de plantes sont cultivés comme plante ornementales dans les jardins, dont le Pearl persa.
 </t>
@@ -604,14 +622,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tulipa humilis Herb. (nom accepté) 
 Tulipa alpina J.Gay ex Baker
 Tulipa aucheriana Baker
 Tulipa humilis subsp. matinae Zojajifar &amp; Sheidai
 Tulipa sylvestris var. pulchella Fenzl ex Regel
-Tulipa violacea Boiss. &amp; Buhse[1]</t>
+Tulipa violacea Boiss. &amp; Buhse</t>
         </is>
       </c>
     </row>
